--- a/Lai Châu.xlsx
+++ b/Lai Châu.xlsx
@@ -2260,14 +2260,14 @@
   <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
